--- a/Programación Concurrente - Elizabeth/Practica1FrokWaitGetpidGetppid/Prácticas/Practica 1, Forks/Tablas Forks.xlsx
+++ b/Programación Concurrente - Elizabeth/Practica1FrokWaitGetpidGetppid/Prácticas/Practica 1, Forks/Tablas Forks.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rodrigo\Documentos\Github\Programacion_Ruben\Programación Concurrente - Elizabeth\Practica1FrokWaitGetpidGetppid\Prácticas\Practica 1, Forks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bicin\Documents\GitHub\Programacion_Ruben\Programación Concurrente - Elizabeth\Practica1FrokWaitGetpidGetppid\Prácticas\Practica 1, Forks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9263186-5CAC-4838-A6A4-A870EEB623EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E30F5-DF97-4F9E-B99F-0E8EE8C2260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{915FF071-E7EC-4C4A-8702-7702C18E8919}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{915FF071-E7EC-4C4A-8702-7702C18E8919}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problema 4" sheetId="3" r:id="rId1"/>
+    <sheet name="Problema 1" sheetId="4" r:id="rId1"/>
     <sheet name="Problema 2" sheetId="1" r:id="rId2"/>
     <sheet name="Problema 3" sheetId="2" r:id="rId3"/>
+    <sheet name="Problema 4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
   <si>
     <t>Linea</t>
   </si>
@@ -194,6 +195,9 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Línea</t>
   </si>
 </sst>
 </file>
@@ -604,24 +608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511220E6-C97D-4A3B-8E40-35F1C1C3AD24}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB82419-0D05-42B0-8C0E-D07B4CE6A441}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B23:B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="4" width="14.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="5"/>
+    <col min="2" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -629,306 +628,49 @@
       <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>6</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>8</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>8</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1278,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5C22B3-95B5-422C-82CF-82BEE590EF60}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1348,4 +1090,337 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511220E6-C97D-4A3B-8E40-35F1C1C3AD24}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B23:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="5"/>
+    <col min="2" max="4" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>